--- a/Modelos em Python/7 dias a frente(7, 1, 7) (2, 1, 1, 12) 24h Erros validação.xlsx
+++ b/Modelos em Python/7 dias a frente(7, 1, 7) (2, 1, 1, 12) 24h Erros validação.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13.09933930689538</v>
+        <v>7.254696640022246</v>
       </c>
       <c r="C2" t="n">
-        <v>38.76536524678188</v>
+        <v>24.51400997432315</v>
       </c>
       <c r="D2" t="n">
-        <v>48.74704132573822</v>
+        <v>31.85295115755241</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.65542071085073</v>
+        <v>9.319702400376338</v>
       </c>
       <c r="C3" t="n">
-        <v>52.78121060369123</v>
+        <v>31.89244793803044</v>
       </c>
       <c r="D3" t="n">
-        <v>69.9840082405312</v>
+        <v>42.31583885873677</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13.89764737281115</v>
+        <v>7.98632717787852</v>
       </c>
       <c r="C4" t="n">
-        <v>41.00579303888166</v>
+        <v>26.93564062398919</v>
       </c>
       <c r="D4" t="n">
-        <v>52.29567782742447</v>
+        <v>35.31801758787495</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13.99002654366394</v>
+        <v>8.091363966118404</v>
       </c>
       <c r="C5" t="n">
-        <v>41.24237228443171</v>
+        <v>27.41028538172177</v>
       </c>
       <c r="D5" t="n">
-        <v>52.33512257778872</v>
+        <v>34.68052224187391</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>14.84762701681282</v>
+        <v>8.694491904232729</v>
       </c>
       <c r="C6" t="n">
-        <v>43.66612099848111</v>
+        <v>29.1940754492279</v>
       </c>
       <c r="D6" t="n">
-        <v>54.45453250949696</v>
+        <v>38.38466056966265</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.29712455583724</v>
+        <v>9.273495879863528</v>
       </c>
       <c r="C7" t="n">
-        <v>48.33853913500774</v>
+        <v>31.39390123332954</v>
       </c>
       <c r="D7" t="n">
-        <v>62.10374976838868</v>
+        <v>42.89418239216346</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17.65950141442152</v>
+        <v>9.297779164647407</v>
       </c>
       <c r="C8" t="n">
-        <v>52.80955066197461</v>
+        <v>31.81808545414096</v>
       </c>
       <c r="D8" t="n">
-        <v>69.9730021079927</v>
+        <v>42.21583667955992</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>17.7226464178539</v>
+        <v>9.34624657017655</v>
       </c>
       <c r="C9" t="n">
-        <v>52.95356736099681</v>
+        <v>31.98220136111325</v>
       </c>
       <c r="D9" t="n">
-        <v>70.15658127910979</v>
+        <v>42.37673590650032</v>
       </c>
     </row>
     <row r="10">
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>128.8446168405245</v>
+        <v>117.3725672402991</v>
       </c>
       <c r="C10" t="n">
-        <v>516.3170320449785</v>
+        <v>522.3802493794244</v>
       </c>
       <c r="D10" t="n">
-        <v>516.3684241006445</v>
+        <v>522.3967625706185</v>
       </c>
     </row>
     <row r="11">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>39.55269275529904</v>
+        <v>19.03856385670827</v>
       </c>
       <c r="C11" t="n">
-        <v>115.0103034318662</v>
+        <v>63.89334627317156</v>
       </c>
       <c r="D11" t="n">
-        <v>125.6357555725617</v>
+        <v>71.94661971968847</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>37.89626210741483</v>
+        <v>19.62486523317698</v>
       </c>
       <c r="C12" t="n">
-        <v>109.839226159395</v>
+        <v>66.00648529649041</v>
       </c>
       <c r="D12" t="n">
-        <v>120.7631939299607</v>
+        <v>73.69247634400789</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>38.61327260231621</v>
+        <v>18.35066040200178</v>
       </c>
       <c r="C13" t="n">
-        <v>112.1793310820162</v>
+        <v>61.42636161672832</v>
       </c>
       <c r="D13" t="n">
-        <v>122.8279562070768</v>
+        <v>69.92590842113961</v>
       </c>
     </row>
   </sheetData>
